--- a/Excel/FirstWinConfig.xlsx
+++ b/Excel/FirstWinConfig.xlsx
@@ -1,120 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719B418F-75E9-4AC0-A6D5-07468F2ECE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="1410" windowWidth="27045" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="FirstWinProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>ChatperId</t>
+  </si>
+  <si>
+    <t>BossID</t>
+  </si>
+  <si>
+    <t>普通奖励</t>
+  </si>
+  <si>
+    <t>挑战奖励</t>
+  </si>
+  <si>
+    <t>地狱奖励</t>
+  </si>
+  <si>
+    <t>RewardList_1</t>
+  </si>
+  <si>
+    <t>RewardList_2</t>
+  </si>
+  <si>
+    <t>RewardList_3</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>BossID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardList_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardList_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardList_3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地狱奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChatperId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>10010042;5@10000101;1</t>
   </si>
   <si>
+    <t>10010042;5@10000101;1@10000121;1</t>
+  </si>
+  <si>
+    <t>10010042;5@10000101;1@10000121;1@10010083;20</t>
+  </si>
+  <si>
+    <t>10010042;5@10000101;1@10000122;1</t>
+  </si>
+  <si>
+    <t>10010042;5@10000101;1@10000122;1@10010083;20</t>
+  </si>
+  <si>
     <t>10010042;5@10000102;1</t>
   </si>
   <si>
+    <t>10010042;5@10000102;1@10000123;1</t>
+  </si>
+  <si>
+    <t>10010042;5@10000102;1@10000123;1@10010083;20</t>
+  </si>
+  <si>
     <t>10010042;5@10000103;1</t>
   </si>
   <si>
+    <t>10010042;5@10000103;1@10000124;1</t>
+  </si>
+  <si>
+    <t>10010042;5@10000103;1@10000124;1@10010083;20</t>
+  </si>
+  <si>
     <t>10010042;5@10000104;1</t>
   </si>
   <si>
-    <t>10010042;5@10000101;1@10000121;1</t>
-  </si>
-  <si>
-    <t>10010042;5@10000101;1@10000122;1</t>
-  </si>
-  <si>
-    <t>10010042;5@10000102;1@10000123;1</t>
-  </si>
-  <si>
-    <t>10010042;5@10000103;1@10000124;1</t>
-  </si>
-  <si>
     <t>10010042;5@10000104;1@10000125;1</t>
-  </si>
-  <si>
-    <t>10010042;5@10000101;1@10000121;1@10010083;20</t>
-  </si>
-  <si>
-    <t>10010042;5@10000101;1@10000122;1@10010083;20</t>
-  </si>
-  <si>
-    <t>10010042;5@10000102;1@10000123;1@10010083;20</t>
-  </si>
-  <si>
-    <t>10010042;5@10000103;1@10000124;1@10010083;20</t>
   </si>
   <si>
     <t>10010042;5@10000104;1@10000125;1@10010083;20</t>
@@ -123,8 +94,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,24 +113,161 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +280,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -175,9 +475,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -185,26 +727,65 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -489,31 +1070,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="32.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="28.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="43.125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -532,7 +1113,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="20.1" customHeight="1" spans="1:17">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -551,26 +1132,26 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="20.1" customHeight="1" spans="1:17">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -582,25 +1163,25 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="20.1" customHeight="1" spans="1:17">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="1"/>
@@ -613,26 +1194,26 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="20.1" customHeight="1" spans="1:17">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>5</v>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -644,7 +1225,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
@@ -654,17 +1235,17 @@
       <c r="E6" s="1">
         <v>70001011</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:17">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -676,14 +1257,14 @@
       <c r="E7" s="1">
         <v>70001104</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>21</v>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -695,7 +1276,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="20.1" customHeight="1" spans="1:17">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
@@ -707,14 +1288,14 @@
       <c r="E8" s="1">
         <v>70001206</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>21</v>
+      <c r="H8" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -726,7 +1307,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="20.1" customHeight="1" spans="1:17">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
@@ -738,14 +1319,14 @@
       <c r="E9" s="1">
         <v>70001209</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>21</v>
+      <c r="H9" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -757,7 +1338,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="20.1" customHeight="1" spans="1:17">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -769,14 +1350,14 @@
       <c r="E10" s="1">
         <v>70002003</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>22</v>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -788,7 +1369,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="20.1" customHeight="1" spans="1:17">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -800,14 +1381,14 @@
       <c r="E11" s="1">
         <v>70002007</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>22</v>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -819,7 +1400,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="20.1" customHeight="1" spans="1:17">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
@@ -831,14 +1412,14 @@
       <c r="E12" s="1">
         <v>70002012</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>22</v>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -850,7 +1431,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="20.1" customHeight="1" spans="1:17">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -862,14 +1443,14 @@
       <c r="E13" s="1">
         <v>70003003</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -881,7 +1462,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="20.1" customHeight="1" spans="1:17">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
@@ -893,14 +1474,14 @@
       <c r="E14" s="1">
         <v>70003006</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -912,7 +1493,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="20.1" customHeight="1" spans="1:17">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
@@ -924,14 +1505,14 @@
       <c r="E15" s="1">
         <v>70003012</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -943,7 +1524,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="20.1" customHeight="1" spans="1:17">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
@@ -955,14 +1536,14 @@
       <c r="E16" s="1">
         <v>70003016</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -974,7 +1555,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="20.1" customHeight="1" spans="1:17">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
@@ -986,14 +1567,14 @@
       <c r="E17" s="1">
         <v>70004003</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>24</v>
+      <c r="G17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1005,7 +1586,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="20.1" customHeight="1" spans="1:17">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
@@ -1017,14 +1598,14 @@
       <c r="E18" s="1">
         <v>70004006</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>24</v>
+      <c r="G18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1036,7 +1617,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="20.1" customHeight="1" spans="1:17">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
@@ -1048,14 +1629,14 @@
       <c r="E19" s="1">
         <v>70004010</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>24</v>
+      <c r="G19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1067,7 +1648,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="20.1" customHeight="1" spans="1:17">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1">
@@ -1079,14 +1660,14 @@
       <c r="E20" s="1">
         <v>70004013</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>24</v>
+      <c r="G20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1098,7 +1679,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" ht="20.1" customHeight="1" spans="1:17">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1">
@@ -1110,14 +1691,14 @@
       <c r="E21" s="1">
         <v>70005003</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>25</v>
+      <c r="F21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1129,7 +1710,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" ht="20.1" customHeight="1" spans="1:17">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1">
@@ -1141,14 +1722,14 @@
       <c r="E22" s="1">
         <v>70005004</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>25</v>
+      <c r="F22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1160,7 +1741,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" ht="20.1" customHeight="1" spans="1:17">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
@@ -1170,16 +1751,16 @@
         <v>5</v>
       </c>
       <c r="E23" s="1">
-        <v>70005011</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>25</v>
+        <v>70005012</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1191,7 +1772,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" ht="20.1" customHeight="1" spans="1:17">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1">
@@ -1201,16 +1782,16 @@
         <v>5</v>
       </c>
       <c r="E24" s="1">
-        <v>70005012</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>25</v>
+        <v>70005013</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1222,27 +1803,15 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" ht="20.1" customHeight="1" spans="1:17">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1">
-        <v>50005</v>
-      </c>
-      <c r="D25" s="1">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>70005013</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1253,7 +1822,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" ht="20.1" customHeight="1" spans="1:17">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1272,41 +1841,22 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="20.1" customHeight="1"/>
+    <row r="28" ht="20.1" customHeight="1"/>
+    <row r="29" ht="20.1" customHeight="1"/>
+    <row r="30" ht="20.1" customHeight="1"/>
+    <row r="31" ht="20.1" customHeight="1"/>
+    <row r="32" ht="20.1" customHeight="1"/>
+    <row r="33" ht="20.1" customHeight="1"/>
+    <row r="34" ht="20.1" customHeight="1"/>
+    <row r="35" ht="20.1" customHeight="1"/>
+    <row r="36" ht="20.1" customHeight="1"/>
+    <row r="37" ht="20.1" customHeight="1"/>
+    <row r="38" ht="20.1" customHeight="1"/>
+    <row r="39" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/FirstWinConfig.xlsx
+++ b/Excel/FirstWinConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0388F4E4-D8C6-45A0-AC6D-DAB255298AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstWinProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -89,19 +95,37 @@
   </si>
   <si>
     <t>10010042;5@10000104;1@10000125;1@10010083;20</t>
+  </si>
+  <si>
+    <t>个人普通奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人挑战奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人地狱奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self_RewardList_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self_RewardList_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self_RewardList_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,161 +137,24 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,194 +167,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -475,251 +176,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -734,58 +193,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1070,19 +490,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -1091,10 +511,13 @@
     <col min="6" max="6" width="28.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="31.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="43.125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="28.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="43.125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1113,7 +536,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:17">
+    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1132,7 +555,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:17">
+    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
@@ -1153,9 +576,15 @@
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1163,7 +592,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:17">
+    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
@@ -1184,9 +613,15 @@
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="I4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1194,7 +629,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:17">
+    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="3" t="s">
@@ -1215,9 +650,15 @@
       <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1225,7 +666,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
@@ -1244,8 +685,17 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:17">
+      <c r="I6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -1266,9 +716,15 @@
       <c r="H7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1276,7 +732,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="1:17">
+    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
@@ -1297,9 +753,15 @@
       <c r="H8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1307,7 +769,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:17">
+    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
@@ -1328,9 +790,15 @@
       <c r="H9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="I9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1338,7 +806,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:17">
+    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -1359,9 +827,15 @@
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1369,7 +843,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="1:17">
+    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -1390,9 +864,15 @@
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1400,7 +880,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:17">
+    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
@@ -1421,9 +901,15 @@
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1431,7 +917,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:17">
+    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -1452,9 +938,15 @@
       <c r="H13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1462,7 +954,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:17">
+    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
@@ -1483,9 +975,15 @@
       <c r="H14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="I14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1493,7 +991,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="1:17">
+    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
@@ -1514,9 +1012,15 @@
       <c r="H15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1524,7 +1028,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="1:17">
+    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
@@ -1545,9 +1049,15 @@
       <c r="H16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1555,7 +1065,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="1:17">
+    <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
@@ -1576,9 +1086,15 @@
       <c r="H17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1586,7 +1102,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="1:17">
+    <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
@@ -1607,9 +1123,15 @@
       <c r="H18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="I18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1617,7 +1139,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="1:17">
+    <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
@@ -1638,9 +1160,15 @@
       <c r="H19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1648,7 +1176,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="1:17">
+    <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1">
@@ -1669,9 +1197,15 @@
       <c r="H20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="I20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1679,7 +1213,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="1:17">
+    <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1">
@@ -1700,9 +1234,15 @@
       <c r="H21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="I21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1710,7 +1250,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="1:17">
+    <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1">
@@ -1731,9 +1271,15 @@
       <c r="H22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="I22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1741,7 +1287,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="1:17">
+    <row r="23" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
@@ -1762,9 +1308,15 @@
       <c r="H23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="I23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1772,7 +1324,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="1:17">
+    <row r="24" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1">
@@ -1793,9 +1345,15 @@
       <c r="H24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="I24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1803,7 +1361,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="1:17">
+    <row r="25" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1822,7 +1380,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="1:17">
+    <row r="26" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1841,22 +1399,22 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" ht="20.1" customHeight="1"/>
-    <row r="28" ht="20.1" customHeight="1"/>
-    <row r="29" ht="20.1" customHeight="1"/>
-    <row r="30" ht="20.1" customHeight="1"/>
-    <row r="31" ht="20.1" customHeight="1"/>
-    <row r="32" ht="20.1" customHeight="1"/>
-    <row r="33" ht="20.1" customHeight="1"/>
-    <row r="34" ht="20.1" customHeight="1"/>
-    <row r="35" ht="20.1" customHeight="1"/>
-    <row r="36" ht="20.1" customHeight="1"/>
-    <row r="37" ht="20.1" customHeight="1"/>
-    <row r="38" ht="20.1" customHeight="1"/>
-    <row r="39" ht="20.1" customHeight="1"/>
+    <row r="27" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/FirstWinConfig.xlsx
+++ b/Excel/FirstWinConfig.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0388F4E4-D8C6-45A0-AC6D-DAB255298AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F9CDD3-3A9B-41F4-8558-4FF23843D697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstWinProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -53,48 +53,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>10010042;5@10000101;1</t>
-  </si>
-  <si>
-    <t>10010042;5@10000101;1@10000121;1</t>
-  </si>
-  <si>
-    <t>10010042;5@10000101;1@10000121;1@10010083;20</t>
-  </si>
-  <si>
-    <t>10010042;5@10000101;1@10000122;1</t>
-  </si>
-  <si>
-    <t>10010042;5@10000101;1@10000122;1@10010083;20</t>
-  </si>
-  <si>
-    <t>10010042;5@10000102;1</t>
-  </si>
-  <si>
-    <t>10010042;5@10000102;1@10000123;1</t>
-  </si>
-  <si>
-    <t>10010042;5@10000102;1@10000123;1@10010083;20</t>
-  </si>
-  <si>
-    <t>10010042;5@10000103;1</t>
-  </si>
-  <si>
-    <t>10010042;5@10000103;1@10000124;1</t>
-  </si>
-  <si>
-    <t>10010042;5@10000103;1@10000124;1@10010083;20</t>
-  </si>
-  <si>
-    <t>10010042;5@10000104;1</t>
-  </si>
-  <si>
-    <t>10010042;5@10000104;1@10000125;1</t>
-  </si>
-  <si>
-    <t>10010042;5@10000104;1@10000125;1@10010083;20</t>
   </si>
   <si>
     <t>个人普通奖励</t>
@@ -119,6 +77,96 @@
   <si>
     <t>Self_RewardList_3</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000101;1@1;10000</t>
+  </si>
+  <si>
+    <t>10000101;1@10000121;1@1;15000</t>
+  </si>
+  <si>
+    <t>10000101;1@10010083;5@1;20000</t>
+  </si>
+  <si>
+    <t>10000101;1@1;15000</t>
+  </si>
+  <si>
+    <t>10000101;1@10000122;1@1;20000</t>
+  </si>
+  <si>
+    <t>10000101;1@10010083;5@1;30000</t>
+  </si>
+  <si>
+    <t>10000102;1@1;20000</t>
+  </si>
+  <si>
+    <t>10000102;1@10000123;1@1;30000</t>
+  </si>
+  <si>
+    <t>10000102;1@10010083;5@1;50000</t>
+  </si>
+  <si>
+    <t>10000103;1@1;20000</t>
+  </si>
+  <si>
+    <t>10000103;1@10000124;1@1;30000</t>
+  </si>
+  <si>
+    <t>10000103;1@10010083;5@1;50000</t>
+  </si>
+  <si>
+    <t>10000104;1@1;20000</t>
+  </si>
+  <si>
+    <t>10000104;1@10000125;1@1;30000</t>
+  </si>
+  <si>
+    <t>10000104;1@10010083;5@1;50000</t>
+  </si>
+  <si>
+    <t>1;20000@10021008;2</t>
+  </si>
+  <si>
+    <t>1;30000@10021009;1@10000121;1</t>
+  </si>
+  <si>
+    <t>1;50000@10010083;10@10010039;1@10000143;2</t>
+  </si>
+  <si>
+    <t>1;30000@10022008;2</t>
+  </si>
+  <si>
+    <t>1;50000@10022009;1@10000122;1</t>
+  </si>
+  <si>
+    <t>1;80000@10010083;10@10010039;1@10000143;2</t>
+  </si>
+  <si>
+    <t>1;50000@10023008;2</t>
+  </si>
+  <si>
+    <t>1;75000@10023009;1@10000123;1</t>
+  </si>
+  <si>
+    <t>1;100000@10010083;10@10010039;1@10000143;2</t>
+  </si>
+  <si>
+    <t>1;70000@10024008;2</t>
+  </si>
+  <si>
+    <t>1;100000@10024009;1@10000124;1</t>
+  </si>
+  <si>
+    <t>1;150000@10010083;10@10010039;1@10000143;2</t>
+  </si>
+  <si>
+    <t>1;100000@10025008;2</t>
+  </si>
+  <si>
+    <t>1;150000@10025009;1@10000125;1</t>
+  </si>
+  <si>
+    <t>1;200000@10010083;10@10010039;1@10000143;2</t>
   </si>
 </sst>
 </file>
@@ -499,7 +547,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1048576"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -577,13 +625,13 @@
         <v>5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -614,13 +662,13 @@
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -677,22 +725,22 @@
         <v>70001011</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -708,22 +756,22 @@
         <v>70001104</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -745,22 +793,22 @@
         <v>70001206</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -782,22 +830,22 @@
         <v>70001209</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -819,22 +867,22 @@
         <v>70002003</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -856,22 +904,22 @@
         <v>70002007</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -893,22 +941,22 @@
         <v>70002012</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -930,22 +978,22 @@
         <v>70003003</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -967,22 +1015,22 @@
         <v>70003006</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1004,22 +1052,22 @@
         <v>70003012</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1041,22 +1089,22 @@
         <v>70003016</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1078,22 +1126,22 @@
         <v>70004003</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1115,22 +1163,22 @@
         <v>70004006</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1152,22 +1200,22 @@
         <v>70004010</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1189,22 +1237,22 @@
         <v>70004013</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1226,22 +1274,22 @@
         <v>70005003</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1263,22 +1311,22 @@
         <v>70005004</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1300,22 +1348,22 @@
         <v>70005012</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1337,22 +1385,22 @@
         <v>70005013</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>

--- a/Excel/FirstWinConfig.xlsx
+++ b/Excel/FirstWinConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F9CDD3-3A9B-41F4-8558-4FF23843D697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140997D1-26F0-4A07-9603-104C540E337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1412,15 +1412,33 @@
     <row r="25" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="C25" s="1">
+        <v>60001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>70006011</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1431,15 +1449,33 @@
     <row r="26" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="C26" s="1">
+        <v>60002</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1">
+        <v>70006012</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>

--- a/Excel/FirstWinConfig.xlsx
+++ b/Excel/FirstWinConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140997D1-26F0-4A07-9603-104C540E337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856E5355-3651-4C47-BCA6-2A4CED242013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstWinProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1483,7 +1483,43 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
+        <v>60003</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>70006013</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
     <row r="28" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
